--- a/배포용 일정표.xlsx
+++ b/배포용 일정표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\google_calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D62FF-8215-42B0-B73D-451995D4512C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29745A-C2BE-4B6E-B539-733132F1FBEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A2BCEF3-F44B-49EB-B8DA-49DEEA063F71}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="54">
   <si>
     <t>목요일</t>
   </si>
@@ -89,18 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인공부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>금요일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,10 +97,6 @@
   </si>
   <si>
     <t>해야할 일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -253,10 +237,6 @@
   </si>
   <si>
     <t>O(우진)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -633,6 +613,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,9 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1116,10 +1096,10 @@
   <dimension ref="A1:S643"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1138,45 +1118,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="54" t="str">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="55" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(TODAY(),$B:$B,1),6))&amp;CHAR(10)&amp;INDIRECT(ADDRESS(MATCH(TODAY(),$B:$B,1),9))&amp;CHAR(10)&amp;INDIRECT(ADDRESS(MATCH(TODAY(),$B:$B,1),12))&amp;CHAR(10)&amp;INDIRECT(ADDRESS(MATCH(TODAY(),$B:$B,1),15))&amp;CHAR(10)&amp;INDIRECT(ADDRESS(MATCH(TODAY(),$B:$B,1),18))&amp;CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -1185,28 +1155,28 @@
         <v>15</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P2" s="14"/>
       <c r="Q2" s="27" t="s">
@@ -1216,10 +1186,10 @@
       <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17">
         <f ca="1">INDIRECT(ADDRESS(MATCH(TODAY(),$B:$B,1),6))</f>
@@ -1268,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>12</v>
@@ -1277,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>11</v>
@@ -1286,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>11</v>
@@ -1295,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>11</v>
@@ -1304,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>11</v>
@@ -1357,7 +1327,7 @@
         <v>43392</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7"/>
       <c r="I9" s="9"/>
@@ -2808,7 +2778,7 @@
       <c r="C183" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D183" s="57"/>
+      <c r="D183" s="30"/>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
@@ -2970,7 +2940,7 @@
       <c r="C202" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D202" s="57"/>
+      <c r="D202" s="30"/>
       <c r="R202" s="26"/>
     </row>
     <row r="203" spans="2:18" x14ac:dyDescent="0.3">
@@ -6579,210 +6549,210 @@
   <sheetData>
     <row r="4" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F7" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="57"/>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F8" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="56"/>
+      <c r="F8" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="57"/>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.3">
       <c r="G9" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.3">
       <c r="G10" s="29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.3">
       <c r="G11" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.3">
       <c r="G12" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="G16" s="57"/>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F17" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="K13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F14" s="56" t="s">
+      <c r="G17" s="57"/>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F18" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="K14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F15" s="56" t="s">
+      <c r="G18" s="57"/>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="K15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F16" s="56" t="s">
+      <c r="G19" s="57"/>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F20" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="K16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F17" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="L17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F18" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="K18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F19" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="K19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="F20" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="57"/>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="G21" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
